--- a/Result/df_unmatched.xlsx
+++ b/Result/df_unmatched.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,396 +360,236 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Cleavage site #</t>
+          <t>Cleavage_site</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Cleave at</t>
+          <t>Cleave_position</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Context</t>
+          <t>Fragment_size</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Fragment size</t>
+          <t>Fragment_sequence</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Fragment sequence</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>theo_mass</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>1 before</t>
-        </is>
+      <c r="A2">
+        <v>0</v>
       </c>
       <c r="B2">
         <v>74</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>aaACAua</t>
-        </is>
-      </c>
-      <c r="D2">
+      <c r="C2">
         <v>73</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>ggaaauaagagagaaaagaagaguaagaagaaauauaagaccccggcgccgccaccauggaagacgccaaaa</t>
-        </is>
-      </c>
-      <c r="F2">
-        <v>23544.39141</v>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>GGGAAAUAAGAGAGAAAAGAAGAGUAAGAAGAAAUAUAAGACCCCGGCGCCGCCACCAUGGAAGACGCCAAAA</t>
+        </is>
+      </c>
+      <c r="E2">
+        <v>23889.43884</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>1 after</t>
-        </is>
+      <c r="A3">
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>74</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>aaACAua</t>
-        </is>
-      </c>
-      <c r="D3">
-        <v>98</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>acauaaagaaaggcccggcgccauucuauccgcuagaggauggaaccgcuggagagcaacugcauaaggcuaugaagagauacgcccugguuccuggaa</t>
-        </is>
-      </c>
-      <c r="F3">
-        <v>32056.32470000001</v>
+        <v>184</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>ACAGAUGC</t>
+        </is>
+      </c>
+      <c r="E3">
+        <v>2593.3603</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="A4">
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>184</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>uuACAga</t>
-        </is>
-      </c>
-      <c r="D4">
-        <v>8</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>acagaugc</t>
-        </is>
-      </c>
-      <c r="F4">
-        <v>2593.3603</v>
+        <v>277</v>
+      </c>
+      <c r="C4">
+        <v>7</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>ACAAAUC</t>
+        </is>
+      </c>
+      <c r="E4">
+        <v>2232.31796</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+      <c r="A5">
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>277</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>auACAaa</t>
-        </is>
-      </c>
-      <c r="D5">
-        <v>7</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>acaaauc</t>
-        </is>
-      </c>
-      <c r="F5">
-        <v>2232.31796</v>
+        <v>404</v>
+      </c>
+      <c r="C5">
+        <v>147</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>ACAGUAUGGGCAUUUCGCAGCCUACCGUAGUGUUUGUUUCCAAAAAGGGGUUGCAAAAAAUUUUGAACGUGCAAAAAAAAUUACCAAUAAUCCAGAAAAUUAUUAUCAUGGAUUCUAAAACGGAUUACCAGGGAUUUCAGUCGAUGU</t>
+        </is>
+      </c>
+      <c r="E5">
+        <v>47291.16007000001</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+      <c r="A6">
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>404</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>caACAgu</t>
-        </is>
-      </c>
-      <c r="D6">
-        <v>147</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>acaguaugggcauuucgcagccuaccguaguguuuguuuccaaaaagggguugcaaaaaauuuugaacgugcaaaaaaaauuaccaauaauccagaaaauuauuaucauggauucuaaaacggauuaccagggauuucagucgaugu</t>
-        </is>
-      </c>
-      <c r="F6">
-        <v>47291.16007000001</v>
+        <v>623</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>ACAAA</t>
+        </is>
+      </c>
+      <c r="E6">
+        <v>1621.25137</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="A7">
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>623</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>ugACAaa</t>
-        </is>
-      </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>acaaa</t>
-        </is>
-      </c>
-      <c r="F7">
-        <v>1621.25137</v>
+        <v>628</v>
+      </c>
+      <c r="C7">
+        <v>183</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ACAAUUGCACUGAUAAUGAACUCCUCUGGAUCUACUGGGUUACCUAAGGGUGUGGCCCUUCCGCAUAGAACUGCCUGCGUCAGAUUCUCGCAUGCCAGAGAUCCUAUUUUUGGCAAUCAAAUCAUUCCGGAUACUGCGAUUUUAAGUGUUGUUCCAUUCCAUCACGGUUUUGGAAUGUUUACU</t>
+        </is>
+      </c>
+      <c r="E7">
+        <v>58410.30165000001</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
+      <c r="A8">
+        <v>20</v>
       </c>
       <c r="B8">
-        <v>628</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>aaACAau</t>
-        </is>
-      </c>
-      <c r="D8">
-        <v>183</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>acaauugcacugauaaugaacuccucuggaucuacuggguuaccuaaggguguggcccuuccgcauagaacugccugcgucagauucucgcaugccagagauccuauuuuuggcaaucaaaucauuccggauacugcgauuuuaaguguuguuccauuccaucacgguuuuggaauguuuacu</t>
-        </is>
-      </c>
-      <c r="F8">
-        <v>58410.30165000001</v>
+        <v>1111</v>
+      </c>
+      <c r="C8">
+        <v>154</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ACACCCGAGGGGGAUGAUAAACCGGGCGCGGUCGGUAAAGUUGUUCCAUUUUUUGAAGCGAAGGUUGUGGAUCUGGAUACCGGGAAAACGCUGGGCGUUAAUCAGAGAGGCGAAUUAUGUGUCAGAGGACCUAUGAUUAUGUCCGGUUAUGUAA</t>
+        </is>
+      </c>
+      <c r="E8">
+        <v>49975.49124999997</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
+      <c r="A9">
+        <v>23</v>
       </c>
       <c r="B9">
-        <v>896</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>uuACAaa</t>
-        </is>
-      </c>
-      <c r="D9">
-        <v>66</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>acaaaauucaaagugcguugcuaguaccaacccuauuuucauucuucgccaaaagcacucugauug</t>
-        </is>
-      </c>
-      <c r="F9">
-        <v>20992.68519999999</v>
+        <v>1311</v>
+      </c>
+      <c r="C9">
+        <v>11</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>ACAUUCUGGAG</t>
+        </is>
+      </c>
+      <c r="E9">
+        <v>3550.458330000001</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
+      <c r="A10">
+        <v>27</v>
       </c>
       <c r="B10">
-        <v>1111</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>uuACAcc</t>
-        </is>
-      </c>
-      <c r="D10">
-        <v>154</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>acacccgagggggaugauaaaccgggcgcggucgguaaaguuguuccauuuuuugaagcgaagguuguggaucuggauaccgggaaaacgcugggcguuaaucagagaggcgaauuaugugucagaggaccuaugauuauguccgguuauguaa</t>
-        </is>
-      </c>
-      <c r="F10">
-        <v>49975.49124999997</v>
+        <v>1434</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ACA</t>
+        </is>
+      </c>
+      <c r="E10">
+        <v>963.14633</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
+      <c r="A11">
+        <v>29</v>
       </c>
       <c r="B11">
-        <v>1311</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>cuACAuu</t>
-        </is>
-      </c>
-      <c r="D11">
-        <v>11</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>acauucuggag</t>
-        </is>
-      </c>
-      <c r="F11">
-        <v>3550.458330000001</v>
+        <v>1445</v>
+      </c>
+      <c r="C11">
+        <v>131</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>ACAUCUUCGACGCGGGCGUGGCAGGUCUUCCCGACGAUGACGCCGGUGAACUUCCCGCCGCCGUUGUUGUUUUGGAGCACGGAAAGACGAUGACGGAAAAAGAGAUCGUGGAUUACGUCGCCAGUCAAGUA</t>
+        </is>
+      </c>
+      <c r="E11">
+        <v>42347.56589999999</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
+      <c r="A12">
+        <v>30</v>
       </c>
       <c r="B12">
-        <v>1347</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>gaACAcu</t>
-        </is>
-      </c>
-      <c r="D12">
-        <v>41</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>acacuucuucauaguugaccgcuugaagucuuuaauuaaau</t>
-        </is>
-      </c>
-      <c r="F12">
-        <v>13010.60250999999</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="B13">
-        <v>1434</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>uuACAac</t>
-        </is>
-      </c>
-      <c r="D13">
-        <v>3</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>aca</t>
-        </is>
-      </c>
-      <c r="F13">
-        <v>963.14633</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="B14">
-        <v>1445</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>caACAuc</t>
-        </is>
-      </c>
-      <c r="D14">
-        <v>131</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>acaucuucgacgcgggcguggcaggucuucccgacgaugacgccggugaacuucccgccgccguuguuguuuuggagcacggaaagacgaugacggaaaaagagaucguggauuacgucgccagucaagua</t>
-        </is>
-      </c>
-      <c r="F14">
-        <v>42347.56589999999</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="B15">
         <v>1576</v>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>uaACAac</t>
-        </is>
-      </c>
-      <c r="D15">
+      <c r="C12">
         <v>366</v>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>acaaccgcgaaaaaguugcgcggaggaguuguguuuguggacgaaguaccgaaaggucuuaccggaaaacucgacgcaagaaaaaucagagagauccucauaaaggccaagaagggcggaaagaucgccgugugauaauaggcuggagccucgguggccuagcuucuugccccuugggccuccccccagccccuccuccccuuccugcacccguacccccguggucuuugaauaaagucugagugggcggcaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaagcauaugacuaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaugaa</t>
-        </is>
-      </c>
-      <c r="F15">
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>ACAACCGCGAAAAAGUUGCGCGGAGGAGUUGUGUUUGUGGACGAAGUACCGAAAGGUCUUACCGGAAAACUCGACGCAAGAAAAAUCAGAGAGAUCCUCAUAAAGGCCAAGAAGGGCGGAAAGAUCGCCGUGUGAUAAUAGGCUGGAGCCUCGGUGGCCUAGCUUCUUGCCCCUUGGGCCUCCCCCCAGCCCCUCCUCCCCUUCCUGCACCCGUACCCCCGUGGUCUUUGAAUAAAGUCUGAGUGGGCGGCAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAGCAUAUGACUAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAUGAA</t>
+        </is>
+      </c>
+      <c r="E12">
         <v>118627.5882999996</v>
       </c>
     </row>
